--- a/Excel_Files/Dynamic_Range/2_cm/673_nm.xlsx
+++ b/Excel_Files/Dynamic_Range/2_cm/673_nm.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>579.931</v>
+        <v>59.152</v>
       </c>
       <c r="D2">
-        <v>2459.682</v>
+        <v>118.607</v>
       </c>
       <c r="E2">
-        <v>1779.155</v>
+        <v>111.302</v>
       </c>
       <c r="F2">
-        <v>6338.685</v>
+        <v>276.477</v>
       </c>
       <c r="G2">
-        <v>1938.525</v>
+        <v>140.499</v>
       </c>
       <c r="H2">
-        <v>13626.186</v>
+        <v>373.427</v>
       </c>
       <c r="I2">
-        <v>1333.266</v>
+        <v>96.283</v>
       </c>
       <c r="J2">
-        <v>2058.712</v>
+        <v>123.263</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>118.992</v>
+        <v>22.314</v>
       </c>
       <c r="D3">
-        <v>554.049</v>
+        <v>45.909</v>
       </c>
       <c r="E3">
-        <v>264.661</v>
+        <v>36.377</v>
       </c>
       <c r="F3">
-        <v>357.127</v>
+        <v>46.457</v>
       </c>
       <c r="G3">
-        <v>528.744</v>
+        <v>62.049</v>
       </c>
       <c r="H3">
-        <v>819.991</v>
+        <v>74.429</v>
       </c>
       <c r="I3">
-        <v>143.703</v>
+        <v>25.923</v>
       </c>
       <c r="J3">
-        <v>68.83499999999999</v>
+        <v>16.587</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>31.029</v>
+        <v>9.545</v>
       </c>
       <c r="D4">
-        <v>60.83</v>
+        <v>13.63</v>
       </c>
       <c r="E4">
-        <v>58.656</v>
+        <v>14.055</v>
       </c>
       <c r="F4">
-        <v>40.305</v>
+        <v>11.505</v>
       </c>
       <c r="G4">
-        <v>70.63500000000001</v>
+        <v>16.922</v>
       </c>
       <c r="H4">
-        <v>84.752</v>
+        <v>18.201</v>
       </c>
       <c r="I4">
-        <v>56.261</v>
+        <v>13.697</v>
       </c>
       <c r="J4">
-        <v>12.498</v>
+        <v>5.424</v>
       </c>
     </row>
   </sheetData>
